--- a/resource_api/finans/konteyner_islem/dosyalar/odemeler_listesi.xlsx
+++ b/resource_api/finans/konteyner_islem/dosyalar/odemeler_listesi.xlsx
@@ -593,598 +593,934 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>23-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>Bigeni - Malta</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>22PP13</t>
+          <t>23BYN44</t>
         </is>
       </c>
       <c r="D3" s="14" t="n">
-        <v>19101.25</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>17-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>21PK2998- 39</t>
+          <t>23BYN45</t>
         </is>
       </c>
       <c r="D4" s="14" t="n">
-        <v>4688.77</v>
+        <v>665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>16-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>İnze Mermer - Turkey</t>
+          <t>Beyzanur Mermer</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>22INZE01</t>
+          <t>23BYN46</t>
         </is>
       </c>
       <c r="D5" s="14" t="n">
-        <v>1469.08</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="inlineStr">
         <is>
-          <t>15-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>Bethany Bristow - USA</t>
+          <t>Guilermo - USA</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>22BET01</t>
+          <t>23ARCA01</t>
         </is>
       </c>
       <c r="D6" s="14" t="n">
-        <v>575</v>
+        <v>21692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="inlineStr">
         <is>
-          <t>15-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>Hantaş Mermer</t>
+          <t>Serkan Kırgız - Turkey</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>22HAN01</t>
+          <t>23SRK06</t>
         </is>
       </c>
       <c r="D7" s="14" t="n">
-        <v>952.6799999999999</v>
+        <v>862.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="inlineStr">
         <is>
-          <t>15-11-2022</t>
+          <t>31-08-2023</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>Porcemar - Venezuela</t>
+          <t>YGM</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
         <is>
-          <t>22PORCE07</t>
+          <t>23YGM02</t>
         </is>
       </c>
       <c r="D8" s="14" t="n">
-        <v>7340</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>14-11-2022</t>
+          <t>30-08-2023</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>İrfan - Turkey</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>22COS27</t>
+          <t>23IRF01</t>
         </is>
       </c>
       <c r="D9" s="14" t="n">
-        <v>7200</v>
+        <v>959.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="inlineStr">
         <is>
-          <t>14-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>22COS28</t>
+          <t>22BERNARD01-3</t>
         </is>
       </c>
       <c r="D10" s="14" t="n">
-        <v>6000</v>
+        <v>333.59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="inlineStr">
         <is>
-          <t>14-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B11" s="13" t="inlineStr">
         <is>
-          <t>Kirill - Russia</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="C11" s="13" t="inlineStr">
         <is>
-          <t>22COS29</t>
+          <t>22BERNARD01-5</t>
         </is>
       </c>
       <c r="D11" s="14" t="n">
-        <v>3500</v>
+        <v>23283.98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="inlineStr">
         <is>
-          <t>11-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B12" s="13" t="inlineStr">
         <is>
-          <t>Cem Peker</t>
+          <t>Bernard Osei - Ghana</t>
         </is>
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>21PK2998- 38</t>
+          <t>22BERNARD01-6</t>
         </is>
       </c>
       <c r="D12" s="14" t="n">
-        <v>6698.25</v>
+        <v>6382.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B13" s="13" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Cem-Mer (PEKER)</t>
         </is>
       </c>
       <c r="C13" s="13" t="inlineStr">
         <is>
-          <t>22WS23</t>
+          <t>23PK3000-4</t>
         </is>
       </c>
       <c r="D13" s="14" t="n">
-        <v>24568.18</v>
+        <v>3349.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="inlineStr">
         <is>
-          <t>10-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B14" s="13" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C14" s="13" t="inlineStr">
         <is>
-          <t>22WS24</t>
+          <t>22DMR78-1</t>
         </is>
       </c>
       <c r="D14" s="14" t="n">
-        <v>8659.190000000001</v>
+        <v>2635.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>09-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B15" s="13" t="inlineStr">
         <is>
-          <t>Ben Persell Thompson - UK</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C15" s="13" t="inlineStr">
         <is>
-          <t>22RGL03</t>
+          <t>22DMR78-2</t>
         </is>
       </c>
       <c r="D15" s="14" t="n">
-        <v>678</v>
+        <v>2872.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="inlineStr">
         <is>
-          <t>09-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B16" s="13" t="inlineStr">
         <is>
-          <t>Thomas Gebing - DE</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>22EXCO01</t>
+          <t>22DMR78-3</t>
         </is>
       </c>
       <c r="D16" s="14" t="n">
-        <v>5000</v>
+        <v>1641.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="inlineStr">
         <is>
-          <t>08-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B17" s="13" t="inlineStr">
         <is>
-          <t>Radu &amp; Eugen - USA</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C17" s="13" t="inlineStr">
         <is>
-          <t>22WS25</t>
+          <t>22DMR78-4</t>
         </is>
       </c>
       <c r="D17" s="14" t="n">
-        <v>8153.24</v>
+        <v>1231.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="inlineStr">
         <is>
-          <t>02-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B18" s="13" t="inlineStr">
         <is>
-          <t>Ben Persell Thompson - UK</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>22RGL03</t>
+          <t>22DMR78-5</t>
         </is>
       </c>
       <c r="D18" s="14" t="n">
-        <v>400</v>
+        <v>1607.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>02-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B19" s="13" t="inlineStr">
         <is>
-          <t>Tracy - AU</t>
+          <t>Denmar</t>
         </is>
       </c>
       <c r="C19" s="13" t="inlineStr">
         <is>
-          <t>22BRP09</t>
+          <t>22DMR78-6</t>
         </is>
       </c>
       <c r="D19" s="14" t="n">
-        <v>1495.5</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="inlineStr">
         <is>
-          <t>01-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B20" s="13" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Patrick - Germany</t>
         </is>
       </c>
       <c r="C20" s="13" t="inlineStr">
         <is>
-          <t>22FEVZİ01-1</t>
+          <t>23PM05</t>
         </is>
       </c>
       <c r="D20" s="14" t="n">
-        <v>1304.16</v>
+        <v>8253.120000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>01-11-2022</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="B21" s="13" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Serra Marble - Turkey</t>
         </is>
       </c>
       <c r="C21" s="13" t="inlineStr">
         <is>
-          <t>22FEVZİ01-2</t>
+          <t>23SRM02</t>
         </is>
       </c>
       <c r="D21" s="14" t="n">
-        <v>10009.66</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="12" t="inlineStr">
         <is>
-          <t>01-11-2022</t>
+          <t>25-08-2023</t>
         </is>
       </c>
       <c r="B22" s="13" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Mama Abui - Ghana</t>
         </is>
       </c>
       <c r="C22" s="13" t="inlineStr">
         <is>
-          <t>22FEVZİ01-3</t>
+          <t>23MA02</t>
         </is>
       </c>
       <c r="D22" s="14" t="n">
-        <v>1216.8</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>01-11-2022</t>
+          <t>24-08-2023</t>
         </is>
       </c>
       <c r="B23" s="13" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Stephen Adjokatcher - Ghana</t>
         </is>
       </c>
       <c r="C23" s="13" t="inlineStr">
         <is>
-          <t>22FEVZİ01-4</t>
+          <t>23STAD01</t>
         </is>
       </c>
       <c r="D23" s="14" t="n">
-        <v>617.76</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>01-11-2022</t>
+          <t>23-08-2023</t>
         </is>
       </c>
       <c r="B24" s="13" t="inlineStr">
         <is>
-          <t>Fevzi - Turkey</t>
+          <t>Bilgihan - Turkey</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
         <is>
-          <t>22FEVZİ02</t>
+          <t>23BLG01</t>
         </is>
       </c>
       <c r="D24" s="14" t="n">
-        <v>3657.46</v>
+        <v>794.42</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="inlineStr">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="13" t="inlineStr">
+        <is>
+          <t>Cem Mermer (Cemalettin)</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="inlineStr">
+        <is>
+          <t>23CEM30-2</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1846.67</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C26" s="13" t="inlineStr">
+        <is>
+          <t>23EFE07</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>4891.13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>21-08-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C27" s="13" t="inlineStr">
+        <is>
+          <t>23EFE06</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>1930.74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>21-08-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t>Sanya Dogaltas - Turkey</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="inlineStr">
+        <is>
+          <t>22SNY15 - 6</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>1460.24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>17-08-2023</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>Arron - AU</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>23ADA03</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>1434.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="inlineStr">
+        <is>
+          <t>17-08-2023</t>
+        </is>
+      </c>
+      <c r="B30" s="13" t="inlineStr">
+        <is>
+          <t>Bruno Perre - France</t>
+        </is>
+      </c>
+      <c r="C30" s="13" t="inlineStr">
+        <is>
+          <t>23EURL01-4</t>
+        </is>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>14295.19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>17-08-2023</t>
+        </is>
+      </c>
+      <c r="B31" s="13" t="inlineStr">
+        <is>
+          <t>Kent Mermer</t>
+        </is>
+      </c>
+      <c r="C31" s="13" t="inlineStr">
+        <is>
+          <t>23KM04</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>3711.65</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12" t="inlineStr">
+        <is>
+          <t>16-08-2023</t>
+        </is>
+      </c>
+      <c r="B32" s="13" t="inlineStr">
+        <is>
+          <t>Ingo - Ghana</t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>18ING01-2</t>
+        </is>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>19006.33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>15-08-2023</t>
+        </is>
+      </c>
+      <c r="B33" s="13" t="inlineStr">
+        <is>
+          <t>Cem Mermer (Cemalettin)</t>
+        </is>
+      </c>
+      <c r="C33" s="13" t="inlineStr">
+        <is>
+          <t>23CEM30-1</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>8669.49</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B34" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C34" s="13" t="inlineStr">
+        <is>
+          <t>22EFE01-11</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>180.63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B35" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C35" s="13" t="inlineStr">
+        <is>
+          <t>23EFE03</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>1279.93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B36" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>23EFE04-1</t>
+        </is>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>3044.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B37" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C37" s="13" t="inlineStr">
+        <is>
+          <t>23EFE04-2</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>8678.33</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B38" s="13" t="inlineStr">
+        <is>
+          <t>Efe - Turkey</t>
+        </is>
+      </c>
+      <c r="C38" s="13" t="inlineStr">
+        <is>
+          <t>23EFE05</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>1958.28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="B39" s="13" t="inlineStr">
+        <is>
+          <t>Gebran - Bahrain</t>
+        </is>
+      </c>
+      <c r="C39" s="13" t="inlineStr">
+        <is>
+          <t>23COME07-1</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>10704.16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="12" t="inlineStr">
+        <is>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="B40" s="13" t="inlineStr">
+        <is>
+          <t>Sheikh - UAE</t>
+        </is>
+      </c>
+      <c r="C40" s="13" t="inlineStr">
+        <is>
+          <t>23SHK06-2</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="B41" s="13" t="inlineStr">
+        <is>
+          <t>Patrick - Germany</t>
+        </is>
+      </c>
+      <c r="C41" s="13" t="inlineStr">
+        <is>
+          <t>23PM04</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>16358.57</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12" t="inlineStr">
+        <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="B42" s="13" t="inlineStr">
+        <is>
+          <t>Flos - Malta</t>
+        </is>
+      </c>
+      <c r="C42" s="13" t="inlineStr">
+        <is>
+          <t>23FLOS47</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>17777.06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>02-08-2023</t>
+        </is>
+      </c>
+      <c r="B43" s="13" t="inlineStr">
+        <is>
+          <t>Onmer - Turkey</t>
+        </is>
+      </c>
+      <c r="C43" s="13" t="inlineStr">
+        <is>
+          <t>23ONM02</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>497.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="B44" s="13" t="inlineStr">
+        <is>
+          <t>Andrii - Ukraine</t>
+        </is>
+      </c>
+      <c r="C44" s="13" t="inlineStr">
+        <is>
+          <t>23LEON03</t>
+        </is>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>4888.24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="B45" s="13" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="C45" s="13" t="inlineStr">
+        <is>
+          <t>22AURA01-4</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>14990.14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="12" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="B46" s="13" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="C46" s="13" t="inlineStr">
+        <is>
+          <t>23AURA02-2</t>
+        </is>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>2166.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="B47" s="13" t="inlineStr">
+        <is>
+          <t>Carl Max - Ghana</t>
+        </is>
+      </c>
+      <c r="C47" s="13" t="inlineStr">
+        <is>
+          <t>23AURA02-3</t>
+        </is>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>15833.36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="B48" s="13" t="inlineStr">
+        <is>
+          <t>VEIK - UAE</t>
+        </is>
+      </c>
+      <c r="C48" s="13" t="inlineStr">
+        <is>
+          <t>23VEIK92</t>
+        </is>
+      </c>
+      <c r="D48" s="14" t="n">
+        <v>15192.4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="inlineStr">
         <is>
           <t>Toplam</t>
         </is>
       </c>
-      <c r="B25" s="13" t="inlineStr"/>
-      <c r="C25" s="13" t="inlineStr"/>
-      <c r="D25" s="16" t="n">
-        <v>123284.98</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="n"/>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n"/>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n"/>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="8" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="n"/>
-      <c r="B29" s="7" t="n"/>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n"/>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="n"/>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="8" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="6" t="n"/>
-      <c r="B32" s="7" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="8" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="6" t="n"/>
-      <c r="B33" s="7" t="n"/>
-      <c r="C33" s="7" t="n"/>
-      <c r="D33" s="8" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="n"/>
-      <c r="B34" s="7" t="n"/>
-      <c r="C34" s="7" t="n"/>
-      <c r="D34" s="8" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="n"/>
-      <c r="B35" s="7" t="n"/>
-      <c r="C35" s="7" t="n"/>
-      <c r="D35" s="8" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="n"/>
-      <c r="B36" s="7" t="n"/>
-      <c r="C36" s="7" t="n"/>
-      <c r="D36" s="8" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="n"/>
-      <c r="B37" s="7" t="n"/>
-      <c r="C37" s="7" t="n"/>
-      <c r="D37" s="8" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="n"/>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="8" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="6" t="n"/>
-      <c r="B39" s="7" t="n"/>
-      <c r="C39" s="7" t="n"/>
-      <c r="D39" s="8" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="n"/>
-      <c r="B40" s="7" t="n"/>
-      <c r="C40" s="7" t="n"/>
-      <c r="D40" s="8" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="n"/>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
-      <c r="D41" s="8" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="n"/>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="8" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="n"/>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="8" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="n"/>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="8" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="n"/>
-      <c r="B45" s="7" t="n"/>
-      <c r="C45" s="7" t="n"/>
-      <c r="D45" s="8" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="n"/>
-      <c r="B46" s="7" t="n"/>
-      <c r="C46" s="7" t="n"/>
-      <c r="D46" s="8" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="n"/>
-      <c r="B47" s="7" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="8" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="n"/>
-      <c r="B48" s="7" t="n"/>
-      <c r="C48" s="7" t="n"/>
-      <c r="D48" s="8" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="n"/>
-      <c r="B49" s="7" t="n"/>
-      <c r="C49" s="7" t="n"/>
-      <c r="D49" s="8" t="n"/>
+      <c r="B49" s="13" t="inlineStr"/>
+      <c r="C49" s="13" t="inlineStr"/>
+      <c r="D49" s="16" t="n">
+        <v>284345.04</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
